--- a/CDSImagingPilotProtocol_TimingsBlockPractice.xlsx
+++ b/CDSImagingPilotProtocol_TimingsBlockPractice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/nicholas_dunn_cchmc_org/Documents/Documents/06 - Neuroimaging Study/SART/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{197E882E-247F-4195-83D5-E536762CC5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AC378B9-501B-4A2F-9B64-ABD0C9AEE0E7}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{197E882E-247F-4195-83D5-E536762CC5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C8D8692-41F5-41ED-A0F3-1A8E833102BE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{7C168C8A-9354-416F-BDD7-A758C706FE4A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="19">
   <si>
     <t>trialType</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>left</t>
-  </si>
-  <si>
-    <t>space</t>
   </si>
   <si>
     <t>None</t>
@@ -153,6 +150,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,7 +456,7 @@
   <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +501,7 @@
         <v>1800</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -520,7 +521,7 @@
         <v>1800</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -540,7 +541,7 @@
         <v>1800</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -560,7 +561,7 @@
         <v>1800</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,7 +581,7 @@
         <v>1800</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,7 +601,7 @@
         <v>1800</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,7 +621,7 @@
         <v>1800</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,7 +641,7 @@
         <v>1800</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,7 +661,7 @@
         <v>1800</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -680,7 +681,7 @@
         <v>1800</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -700,7 +701,7 @@
         <v>1800</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,7 +721,7 @@
         <v>1800</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,7 +741,7 @@
         <v>1800</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,7 +761,7 @@
         <v>1800</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,7 +781,7 @@
         <v>1800</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -800,7 +801,7 @@
         <v>1800</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -820,7 +821,7 @@
         <v>1800</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,7 +841,7 @@
         <v>1800</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -880,7 +881,7 @@
         <v>5000</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -903,7 +904,7 @@
         <v>1800</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,7 +924,7 @@
         <v>1800</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,7 +944,7 @@
         <v>1800</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,7 +964,7 @@
         <v>1800</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,7 +984,7 @@
         <v>1800</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1003,7 +1004,7 @@
         <v>1800</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1023,7 +1024,7 @@
         <v>1800</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1043,7 +1044,7 @@
         <v>1800</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1063,7 +1064,7 @@
         <v>1800</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1083,7 +1084,7 @@
         <v>1800</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1103,7 +1104,7 @@
         <v>1800</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,7 +1144,7 @@
         <v>5000</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
@@ -1166,7 +1167,7 @@
         <v>1800</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,7 +1187,7 @@
         <v>1800</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,7 +1207,7 @@
         <v>1800</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,7 +1227,7 @@
         <v>1800</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,7 +1247,7 @@
         <v>1800</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,7 +1267,7 @@
         <v>1800</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,7 +1287,7 @@
         <v>1800</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,7 +1307,7 @@
         <v>1800</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1326,7 +1327,7 @@
         <v>1800</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1346,7 +1347,7 @@
         <v>1800</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1366,7 +1367,7 @@
         <v>1800</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1386,7 +1387,7 @@
         <v>1800</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1406,7 +1407,7 @@
         <v>1800</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,7 +1427,7 @@
         <v>1800</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,7 +1447,7 @@
         <v>1800</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1466,7 +1467,7 @@
         <v>1800</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,7 +1487,7 @@
         <v>1800</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,7 +1507,7 @@
         <v>1800</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,7 +1527,7 @@
         <v>1800</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,7 +1547,7 @@
         <v>1800</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,7 +1567,7 @@
         <v>1800</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,7 +1587,7 @@
         <v>1800</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,7 +1607,7 @@
         <v>1800</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,7 +1627,7 @@
         <v>1800</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,7 +1647,7 @@
         <v>1800</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,7 +1667,7 @@
         <v>1800</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,7 +1687,7 @@
         <v>1800</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,7 +1707,7 @@
         <v>1800</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,7 +1727,7 @@
         <v>1800</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,7 +1747,7 @@
         <v>1800</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1766,7 +1767,7 @@
         <v>1800</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,7 +1787,7 @@
         <v>1800</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1806,7 +1807,7 @@
         <v>1800</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1826,7 +1827,7 @@
         <v>1800</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -1846,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -1866,7 +1867,7 @@
         <v>5000</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
@@ -1889,7 +1890,7 @@
         <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -1909,7 +1910,7 @@
         <v>1800</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -1929,7 +1930,7 @@
         <v>1800</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,7 +1950,7 @@
         <v>1800</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -1969,7 +1970,7 @@
         <v>1800</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -1989,7 +1990,7 @@
         <v>1800</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2009,7 +2010,7 @@
         <v>1800</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2029,7 +2030,7 @@
         <v>1800</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2049,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2069,7 +2070,7 @@
         <v>1800</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,7 +2090,7 @@
         <v>1800</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2109,7 +2110,7 @@
         <v>1800</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,7 +2130,7 @@
         <v>1800</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,7 +2150,7 @@
         <v>1800</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2169,7 +2170,7 @@
         <v>1800</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,7 +2190,7 @@
         <v>1800</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2209,7 +2210,7 @@
         <v>1800</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2229,7 +2230,7 @@
         <v>1800</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,7 +2250,7 @@
         <v>1800</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2269,7 +2270,7 @@
         <v>1800</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,7 +2290,7 @@
         <v>1800</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2309,7 +2310,7 @@
         <v>1800</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2329,7 +2330,7 @@
         <v>1800</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2349,7 +2350,7 @@
         <v>1800</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,7 +2370,7 @@
         <v>1800</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2389,7 +2390,7 @@
         <v>1800</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2409,7 +2410,7 @@
         <v>1800</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2429,7 +2430,7 @@
         <v>1800</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,7 +2450,7 @@
         <v>1800</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2469,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2489,7 +2490,7 @@
         <v>5000</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -2512,7 +2513,7 @@
         <v>1800</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2532,7 +2533,7 @@
         <v>1800</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,7 +2553,7 @@
         <v>1800</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2572,7 +2573,7 @@
         <v>1800</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2592,7 +2593,7 @@
         <v>1800</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -2612,7 +2613,7 @@
         <v>1800</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -2632,7 +2633,7 @@
         <v>1800</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -2652,7 +2653,7 @@
         <v>1800</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -2672,7 +2673,7 @@
         <v>1800</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,7 +2693,7 @@
         <v>1800</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,7 +2713,7 @@
         <v>1800</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2732,7 +2733,7 @@
         <v>1800</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2752,7 +2753,7 @@
         <v>1800</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,7 +2773,7 @@
         <v>1800</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2792,7 +2793,7 @@
         <v>1800</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,7 +2813,7 @@
         <v>1800</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,7 +2833,7 @@
         <v>1800</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2852,7 +2853,7 @@
         <v>1800</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,7 +2873,7 @@
         <v>1800</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2892,7 +2893,7 @@
         <v>1800</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2912,7 +2913,7 @@
         <v>1800</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2932,7 +2933,7 @@
         <v>1800</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2952,7 +2953,7 @@
         <v>1800</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2972,7 +2973,7 @@
         <v>1800</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,7 +2993,7 @@
         <v>1800</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3012,7 +3013,7 @@
         <v>1800</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3032,7 +3033,7 @@
         <v>1800</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,7 +3053,7 @@
         <v>1800</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,7 +3073,7 @@
         <v>1800</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3092,7 +3093,7 @@
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,7 +3113,7 @@
         <v>1800</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3132,7 +3133,7 @@
         <v>1800</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3152,7 +3153,7 @@
         <v>1800</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,7 +3173,7 @@
         <v>1800</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,7 +3193,7 @@
         <v>1800</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3212,7 +3213,7 @@
         <v>1800</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3232,7 +3233,7 @@
         <v>1800</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3252,7 +3253,7 @@
         <v>1800</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3272,7 +3273,7 @@
         <v>1800</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3292,7 +3293,7 @@
         <v>1800</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,7 +3313,7 @@
         <v>1800</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3332,7 +3333,7 @@
         <v>1800</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3352,7 +3353,7 @@
         <v>1800</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3372,7 +3373,7 @@
         <v>1800</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3392,7 +3393,7 @@
         <v>1800</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,7 +3413,7 @@
         <v>1800</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3432,7 +3433,7 @@
         <v>1800</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -3452,7 +3453,7 @@
         <v>1800</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -3472,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -3492,7 +3493,7 @@
         <v>5000</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G151" t="s">
         <v>13</v>
@@ -3515,7 +3516,7 @@
         <v>1800</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -3535,7 +3536,7 @@
         <v>1800</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -3555,7 +3556,7 @@
         <v>1800</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,7 +3576,7 @@
         <v>1800</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -3595,7 +3596,7 @@
         <v>1800</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -3615,7 +3616,7 @@
         <v>1800</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,7 +3636,7 @@
         <v>1800</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -3655,7 +3656,7 @@
         <v>1800</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -3675,7 +3676,7 @@
         <v>1800</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -3695,7 +3696,7 @@
         <v>1800</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -3715,7 +3716,7 @@
         <v>1800</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -3735,7 +3736,7 @@
         <v>1800</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -3775,7 +3776,7 @@
         <v>5000</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G165" t="s">
         <v>13</v>
@@ -3798,7 +3799,7 @@
         <v>1800</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -3818,7 +3819,7 @@
         <v>1800</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -3838,7 +3839,7 @@
         <v>1800</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -3858,7 +3859,7 @@
         <v>1800</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -3878,7 +3879,7 @@
         <v>1800</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -3898,7 +3899,7 @@
         <v>1800</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -3918,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,7 +3939,7 @@
         <v>5000</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G173" t="s">
         <v>15</v>
@@ -3961,7 +3962,7 @@
         <v>1800</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -3981,7 +3982,7 @@
         <v>1800</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4001,7 +4002,7 @@
         <v>1800</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4021,7 +4022,7 @@
         <v>1800</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4041,7 +4042,7 @@
         <v>1800</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4061,7 +4062,7 @@
         <v>1800</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4081,7 +4082,7 @@
         <v>1800</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4101,7 +4102,7 @@
         <v>1800</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4121,7 +4122,7 @@
         <v>1800</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4141,7 +4142,7 @@
         <v>1800</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4161,7 +4162,7 @@
         <v>1800</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4181,7 +4182,7 @@
         <v>1800</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4201,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4221,7 +4222,7 @@
         <v>5000</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G187" t="s">
         <v>13</v>
@@ -4244,7 +4245,7 @@
         <v>1800</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4264,7 +4265,7 @@
         <v>1800</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4284,7 +4285,7 @@
         <v>1800</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -4304,7 +4305,7 @@
         <v>1800</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -4324,7 +4325,7 @@
         <v>1800</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -4344,7 +4345,7 @@
         <v>1800</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -4364,7 +4365,7 @@
         <v>1800</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -4384,7 +4385,7 @@
         <v>1800</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -4404,7 +4405,7 @@
         <v>1800</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -4424,7 +4425,7 @@
         <v>1800</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -4444,7 +4445,7 @@
         <v>1800</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -4464,7 +4465,7 @@
         <v>1800</v>
       </c>
       <c r="F199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -4484,7 +4485,7 @@
         <v>1800</v>
       </c>
       <c r="F200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -4504,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -4524,7 +4525,7 @@
         <v>5000</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G202" t="s">
         <v>13</v>
@@ -4547,7 +4548,7 @@
         <v>1800</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4567,7 +4568,7 @@
         <v>1800</v>
       </c>
       <c r="F204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4587,7 +4588,7 @@
         <v>1800</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -4607,7 +4608,7 @@
         <v>1800</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4627,7 +4628,7 @@
         <v>1800</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -4647,7 +4648,7 @@
         <v>1800</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -4667,7 +4668,7 @@
         <v>1800</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -4687,7 +4688,7 @@
         <v>1800</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -4707,7 +4708,7 @@
         <v>1800</v>
       </c>
       <c r="F211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -4727,7 +4728,7 @@
         <v>1800</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -4747,7 +4748,7 @@
         <v>1800</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -4767,7 +4768,7 @@
         <v>1800</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -4807,7 +4808,7 @@
         <v>5000</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G216" t="s">
         <v>13</v>
@@ -4830,7 +4831,7 @@
         <v>1800</v>
       </c>
       <c r="F217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -4850,7 +4851,7 @@
         <v>1800</v>
       </c>
       <c r="F218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -4870,7 +4871,7 @@
         <v>1800</v>
       </c>
       <c r="F219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -4890,7 +4891,7 @@
         <v>1800</v>
       </c>
       <c r="F220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -4910,7 +4911,7 @@
         <v>1800</v>
       </c>
       <c r="F221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -4930,7 +4931,7 @@
         <v>1800</v>
       </c>
       <c r="F222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -4950,7 +4951,7 @@
         <v>1800</v>
       </c>
       <c r="F223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -4970,7 +4971,7 @@
         <v>1800</v>
       </c>
       <c r="F224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -4990,7 +4991,7 @@
         <v>1800</v>
       </c>
       <c r="F225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -5010,7 +5011,7 @@
         <v>1800</v>
       </c>
       <c r="F226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5030,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -5050,7 +5051,7 @@
         <v>5000</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G228" t="s">
         <v>13</v>
@@ -5073,7 +5074,7 @@
         <v>1800</v>
       </c>
       <c r="F229" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -5093,7 +5094,7 @@
         <v>1800</v>
       </c>
       <c r="F230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -5113,7 +5114,7 @@
         <v>1800</v>
       </c>
       <c r="F231" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -5133,7 +5134,7 @@
         <v>1800</v>
       </c>
       <c r="F232" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -5153,7 +5154,7 @@
         <v>1800</v>
       </c>
       <c r="F233" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -5173,7 +5174,7 @@
         <v>1800</v>
       </c>
       <c r="F234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -5193,7 +5194,7 @@
         <v>1800</v>
       </c>
       <c r="F235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -5213,7 +5214,7 @@
         <v>1800</v>
       </c>
       <c r="F236" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -5233,7 +5234,7 @@
         <v>1800</v>
       </c>
       <c r="F237" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -5253,7 +5254,7 @@
         <v>1800</v>
       </c>
       <c r="F238" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -5273,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -5293,7 +5294,7 @@
         <v>5000</v>
       </c>
       <c r="F240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G240" t="s">
         <v>13</v>
@@ -5316,7 +5317,7 @@
         <v>1800</v>
       </c>
       <c r="F241" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -5336,7 +5337,7 @@
         <v>1800</v>
       </c>
       <c r="F242" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -5356,7 +5357,7 @@
         <v>1800</v>
       </c>
       <c r="F243" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -5376,7 +5377,7 @@
         <v>1800</v>
       </c>
       <c r="F244" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -5396,7 +5397,7 @@
         <v>1800</v>
       </c>
       <c r="F245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -5416,7 +5417,7 @@
         <v>1800</v>
       </c>
       <c r="F246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -5436,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -5456,7 +5457,7 @@
         <v>5000</v>
       </c>
       <c r="F248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G248" t="s">
         <v>13</v>
@@ -5479,7 +5480,7 @@
         <v>1800</v>
       </c>
       <c r="F249" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -5499,7 +5500,7 @@
         <v>1800</v>
       </c>
       <c r="F250" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -5519,7 +5520,7 @@
         <v>1800</v>
       </c>
       <c r="F251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -5539,7 +5540,7 @@
         <v>1800</v>
       </c>
       <c r="F252" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -5559,7 +5560,7 @@
         <v>1800</v>
       </c>
       <c r="F253" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -5579,7 +5580,7 @@
         <v>1800</v>
       </c>
       <c r="F254" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,7 +5600,7 @@
         <v>1800</v>
       </c>
       <c r="F255" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -5619,7 +5620,7 @@
         <v>1800</v>
       </c>
       <c r="F256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -5639,7 +5640,7 @@
         <v>1800</v>
       </c>
       <c r="F257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -5659,7 +5660,7 @@
         <v>1800</v>
       </c>
       <c r="F258" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -5679,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="F259" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -5699,7 +5700,7 @@
         <v>1800</v>
       </c>
       <c r="F260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -5719,7 +5720,7 @@
         <v>1800</v>
       </c>
       <c r="F261" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -5739,7 +5740,7 @@
         <v>1800</v>
       </c>
       <c r="F262" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -5759,7 +5760,7 @@
         <v>1800</v>
       </c>
       <c r="F263" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -5779,7 +5780,7 @@
         <v>1800</v>
       </c>
       <c r="F264" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -5799,7 +5800,7 @@
         <v>1800</v>
       </c>
       <c r="F265" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -5819,7 +5820,7 @@
         <v>1800</v>
       </c>
       <c r="F266" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -5839,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F267" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,7 +5860,7 @@
         <v>5000</v>
       </c>
       <c r="F268" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G268" t="s">
         <v>13</v>
@@ -5882,7 +5883,7 @@
         <v>1800</v>
       </c>
       <c r="F269" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -5902,7 +5903,7 @@
         <v>1800</v>
       </c>
       <c r="F270" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -5922,7 +5923,7 @@
         <v>1800</v>
       </c>
       <c r="F271" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -5942,7 +5943,7 @@
         <v>1800</v>
       </c>
       <c r="F272" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -5962,7 +5963,7 @@
         <v>1800</v>
       </c>
       <c r="F273" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -5982,7 +5983,7 @@
         <v>1800</v>
       </c>
       <c r="F274" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6002,7 +6003,7 @@
         <v>1800</v>
       </c>
       <c r="F275" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6022,7 +6023,7 @@
         <v>1800</v>
       </c>
       <c r="F276" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6042,7 +6043,7 @@
         <v>1800</v>
       </c>
       <c r="F277" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6062,7 +6063,7 @@
         <v>1800</v>
       </c>
       <c r="F278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6082,7 +6083,7 @@
         <v>1800</v>
       </c>
       <c r="F279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -6102,7 +6103,7 @@
         <v>1800</v>
       </c>
       <c r="F280" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6122,7 +6123,7 @@
         <v>1800</v>
       </c>
       <c r="F281" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6142,7 +6143,7 @@
         <v>1800</v>
       </c>
       <c r="F282" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6162,7 +6163,7 @@
         <v>1800</v>
       </c>
       <c r="F283" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6182,7 +6183,7 @@
         <v>1800</v>
       </c>
       <c r="F284" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -6202,7 +6203,7 @@
         <v>1800</v>
       </c>
       <c r="F285" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -6222,7 +6223,7 @@
         <v>1800</v>
       </c>
       <c r="F286" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6242,7 +6243,7 @@
         <v>1800</v>
       </c>
       <c r="F287" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -6262,7 +6263,7 @@
         <v>1800</v>
       </c>
       <c r="F288" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6282,7 +6283,7 @@
         <v>1800</v>
       </c>
       <c r="F289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,7 +6303,7 @@
         <v>1800</v>
       </c>
       <c r="F290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,7 +6323,7 @@
         <v>1800</v>
       </c>
       <c r="F291" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -6342,7 +6343,7 @@
         <v>1800</v>
       </c>
       <c r="F292" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -6362,7 +6363,7 @@
         <v>1800</v>
       </c>
       <c r="F293" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,7 +6383,7 @@
         <v>1800</v>
       </c>
       <c r="F294" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -6402,7 +6403,7 @@
         <v>1800</v>
       </c>
       <c r="F295" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -6422,7 +6423,7 @@
         <v>1800</v>
       </c>
       <c r="F296" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -6442,7 +6443,7 @@
         <v>1800</v>
       </c>
       <c r="F297" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6462,7 +6463,7 @@
         <v>1800</v>
       </c>
       <c r="F298" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6482,7 +6483,7 @@
         <v>1800</v>
       </c>
       <c r="F299" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,7 +6503,7 @@
         <v>1800</v>
       </c>
       <c r="F300" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -6522,7 +6523,7 @@
         <v>1800</v>
       </c>
       <c r="F301" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6543,7 @@
         <v>1800</v>
       </c>
       <c r="F302" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -6562,7 +6563,7 @@
         <v>1800</v>
       </c>
       <c r="F303" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -6582,7 +6583,7 @@
         <v>1800</v>
       </c>
       <c r="F304" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -6602,7 +6603,7 @@
         <v>1800</v>
       </c>
       <c r="F305" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -6622,7 +6623,7 @@
         <v>1800</v>
       </c>
       <c r="F306" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6642,7 +6643,7 @@
         <v>1800</v>
       </c>
       <c r="F307" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6662,7 +6663,7 @@
         <v>1800</v>
       </c>
       <c r="F308" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6682,7 +6683,7 @@
         <v>1800</v>
       </c>
       <c r="F309" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6702,7 +6703,7 @@
         <v>1800</v>
       </c>
       <c r="F310" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6722,7 +6723,7 @@
         <v>1800</v>
       </c>
       <c r="F311" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6742,7 +6743,7 @@
         <v>1800</v>
       </c>
       <c r="F312" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6762,7 +6763,7 @@
         <v>1800</v>
       </c>
       <c r="F313" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6782,7 +6783,7 @@
         <v>1800</v>
       </c>
       <c r="F314" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6802,7 +6803,7 @@
         <v>1800</v>
       </c>
       <c r="F315" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6822,7 +6823,7 @@
         <v>1800</v>
       </c>
       <c r="F316" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -6842,7 +6843,7 @@
         <v>1800</v>
       </c>
       <c r="F317" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6862,7 +6863,7 @@
         <v>1800</v>
       </c>
       <c r="F318" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6882,7 +6883,7 @@
         <v>1800</v>
       </c>
       <c r="F319" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -6902,7 +6903,7 @@
         <v>1800</v>
       </c>
       <c r="F320" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -6922,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F321" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -6942,7 +6943,7 @@
         <v>5000</v>
       </c>
       <c r="F322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G322" t="s">
         <v>13</v>
@@ -6965,7 +6966,7 @@
         <v>1800</v>
       </c>
       <c r="F323" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -6985,7 +6986,7 @@
         <v>1800</v>
       </c>
       <c r="F324" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -7005,7 +7006,7 @@
         <v>1800</v>
       </c>
       <c r="F325" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -7025,7 +7026,7 @@
         <v>1800</v>
       </c>
       <c r="F326" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -7045,7 +7046,7 @@
         <v>1800</v>
       </c>
       <c r="F327" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -7065,7 +7066,7 @@
         <v>1800</v>
       </c>
       <c r="F328" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -7085,7 +7086,7 @@
         <v>1800</v>
       </c>
       <c r="F329" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -7105,7 +7106,7 @@
         <v>1800</v>
       </c>
       <c r="F330" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -7125,7 +7126,7 @@
         <v>1800</v>
       </c>
       <c r="F331" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -7145,7 +7146,7 @@
         <v>1800</v>
       </c>
       <c r="F332" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -7165,7 +7166,7 @@
         <v>1800</v>
       </c>
       <c r="F333" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -7185,7 +7186,7 @@
         <v>1800</v>
       </c>
       <c r="F334" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -7205,7 +7206,7 @@
         <v>1800</v>
       </c>
       <c r="F335" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -7225,7 +7226,7 @@
         <v>1800</v>
       </c>
       <c r="F336" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -7245,7 +7246,7 @@
         <v>1800</v>
       </c>
       <c r="F337" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -7265,7 +7266,7 @@
         <v>1800</v>
       </c>
       <c r="F338" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -7285,7 +7286,7 @@
         <v>1800</v>
       </c>
       <c r="F339" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -7305,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="F340" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -7325,7 +7326,7 @@
         <v>5000</v>
       </c>
       <c r="F341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G341" t="s">
         <v>13</v>
@@ -7348,7 +7349,7 @@
         <v>1800</v>
       </c>
       <c r="F342" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -7368,7 +7369,7 @@
         <v>1800</v>
       </c>
       <c r="F343" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -7388,7 +7389,7 @@
         <v>1800</v>
       </c>
       <c r="F344" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -7408,7 +7409,7 @@
         <v>1800</v>
       </c>
       <c r="F345" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -7428,7 +7429,7 @@
         <v>1800</v>
       </c>
       <c r="F346" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -7448,7 +7449,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/CDSImagingPilotProtocol_TimingsBlockPractice.xlsx
+++ b/CDSImagingPilotProtocol_TimingsBlockPractice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/nicholas_dunn_cchmc_org/Documents/Documents/06 - Neuroimaging Study/SART/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Research\Computerized Tasks\Sustained Attention to Response Task\sart-tp-psychopy-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{197E882E-247F-4195-83D5-E536762CC5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C8D8692-41F5-41ED-A0F3-1A8E833102BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5DBA98-BF41-44F2-B179-DB6F9454A5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{7C168C8A-9354-416F-BDD7-A758C706FE4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7C168C8A-9354-416F-BDD7-A758C706FE4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>Probe 1</t>
   </si>
   <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
     <t>Probe 2</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>num</t>
+  </si>
+  <si>
+    <t>Where was your attention focused just before the probe?</t>
   </si>
 </sst>
 </file>
@@ -150,10 +150,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,7 +452,7 @@
   <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +497,7 @@
         <v>1800</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,7 +517,7 @@
         <v>1800</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -541,7 +537,7 @@
         <v>1800</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,7 +557,7 @@
         <v>1800</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -581,7 +577,7 @@
         <v>1800</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -601,7 +597,7 @@
         <v>1800</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,7 +617,7 @@
         <v>1800</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,7 +637,7 @@
         <v>1800</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -661,7 +657,7 @@
         <v>1800</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,7 +677,7 @@
         <v>1800</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,7 +697,7 @@
         <v>1800</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -721,7 +717,7 @@
         <v>1800</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -741,7 +737,7 @@
         <v>1800</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -761,7 +757,7 @@
         <v>1800</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,7 +777,7 @@
         <v>1800</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,7 +797,7 @@
         <v>1800</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -821,7 +817,7 @@
         <v>1800</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -841,7 +837,7 @@
         <v>1800</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -849,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>41400</v>
@@ -861,15 +857,15 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
         <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
       </c>
       <c r="C21">
         <v>46400</v>
@@ -881,10 +877,10 @@
         <v>5000</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -904,7 +900,7 @@
         <v>1800</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,7 +920,7 @@
         <v>1800</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -944,7 +940,7 @@
         <v>1800</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,7 +960,7 @@
         <v>1800</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -984,7 +980,7 @@
         <v>1800</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1004,7 +1000,7 @@
         <v>1800</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1024,7 +1020,7 @@
         <v>1800</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1040,7 @@
         <v>1800</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,7 +1060,7 @@
         <v>1800</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,7 +1080,7 @@
         <v>1800</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,7 +1100,7 @@
         <v>1800</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1112,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>81700</v>
@@ -1124,15 +1120,15 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>86700</v>
@@ -1144,10 +1140,10 @@
         <v>5000</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,7 +1163,7 @@
         <v>1800</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1187,7 +1183,7 @@
         <v>1800</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1207,7 +1203,7 @@
         <v>1800</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1227,7 +1223,7 @@
         <v>1800</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1247,7 +1243,7 @@
         <v>1800</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,7 +1263,7 @@
         <v>1800</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1287,7 +1283,7 @@
         <v>1800</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,7 +1303,7 @@
         <v>1800</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1327,7 +1323,7 @@
         <v>1800</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1347,7 +1343,7 @@
         <v>1800</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1367,7 +1363,7 @@
         <v>1800</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1387,7 +1383,7 @@
         <v>1800</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1407,7 +1403,7 @@
         <v>1800</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1427,7 +1423,7 @@
         <v>1800</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,7 +1443,7 @@
         <v>1800</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,7 +1463,7 @@
         <v>1800</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,7 +1483,7 @@
         <v>1800</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1507,7 +1503,7 @@
         <v>1800</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,7 +1523,7 @@
         <v>1800</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,7 +1543,7 @@
         <v>1800</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1567,7 +1563,7 @@
         <v>1800</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,7 +1583,7 @@
         <v>1800</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,7 +1603,7 @@
         <v>1800</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1627,7 +1623,7 @@
         <v>1800</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1647,7 +1643,7 @@
         <v>1800</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,7 +1663,7 @@
         <v>1800</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1687,7 +1683,7 @@
         <v>1800</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,7 +1703,7 @@
         <v>1800</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1727,7 +1723,7 @@
         <v>1800</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,7 +1743,7 @@
         <v>1800</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1767,7 +1763,7 @@
         <v>1800</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,7 +1783,7 @@
         <v>1800</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1807,7 +1803,7 @@
         <v>1800</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1827,7 +1823,7 @@
         <v>1800</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>174900</v>
@@ -1847,15 +1843,15 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
         <v>11</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
       </c>
       <c r="C70">
         <v>179900</v>
@@ -1867,10 +1863,10 @@
         <v>5000</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,7 +1886,7 @@
         <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,7 +1906,7 @@
         <v>1800</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -1930,7 +1926,7 @@
         <v>1800</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,7 +1946,7 @@
         <v>1800</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -1970,7 +1966,7 @@
         <v>1800</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -1990,7 +1986,7 @@
         <v>1800</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,7 +2006,7 @@
         <v>1800</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2030,7 +2026,7 @@
         <v>1800</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2050,7 +2046,7 @@
         <v>1800</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2070,7 +2066,7 @@
         <v>1800</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,7 +2086,7 @@
         <v>1800</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,7 +2106,7 @@
         <v>1800</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2130,7 +2126,7 @@
         <v>1800</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,7 +2146,7 @@
         <v>1800</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2170,7 +2166,7 @@
         <v>1800</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2190,7 +2186,7 @@
         <v>1800</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,7 +2206,7 @@
         <v>1800</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2230,7 +2226,7 @@
         <v>1800</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2250,7 +2246,7 @@
         <v>1800</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,7 +2266,7 @@
         <v>1800</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2290,7 +2286,7 @@
         <v>1800</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2310,7 +2306,7 @@
         <v>1800</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2330,7 +2326,7 @@
         <v>1800</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2350,7 +2346,7 @@
         <v>1800</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2370,7 +2366,7 @@
         <v>1800</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2390,7 +2386,7 @@
         <v>1800</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,7 +2406,7 @@
         <v>1800</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2430,7 +2426,7 @@
         <v>1800</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2450,7 +2446,7 @@
         <v>1800</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2458,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C100">
         <v>256600</v>
@@ -2470,15 +2466,15 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
         <v>11</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
       </c>
       <c r="C101">
         <v>261600</v>
@@ -2490,10 +2486,10 @@
         <v>5000</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,7 +2509,7 @@
         <v>1800</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2533,7 +2529,7 @@
         <v>1800</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,7 +2549,7 @@
         <v>1800</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2573,7 +2569,7 @@
         <v>1800</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,7 +2589,7 @@
         <v>1800</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -2613,7 +2609,7 @@
         <v>1800</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,7 +2629,7 @@
         <v>1800</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -2653,7 +2649,7 @@
         <v>1800</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -2673,7 +2669,7 @@
         <v>1800</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -2693,7 +2689,7 @@
         <v>1800</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,7 +2709,7 @@
         <v>1800</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,7 +2729,7 @@
         <v>1800</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2753,7 +2749,7 @@
         <v>1800</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2773,7 +2769,7 @@
         <v>1800</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2793,7 +2789,7 @@
         <v>1800</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,7 +2809,7 @@
         <v>1800</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2833,7 +2829,7 @@
         <v>1800</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,7 +2849,7 @@
         <v>1800</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2873,7 +2869,7 @@
         <v>1800</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2893,7 +2889,7 @@
         <v>1800</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2913,7 +2909,7 @@
         <v>1800</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,7 +2929,7 @@
         <v>1800</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2953,7 +2949,7 @@
         <v>1800</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2973,7 +2969,7 @@
         <v>1800</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2993,7 +2989,7 @@
         <v>1800</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3013,7 +3009,7 @@
         <v>1800</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3033,7 +3029,7 @@
         <v>1800</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,7 +3049,7 @@
         <v>1800</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,7 +3069,7 @@
         <v>1800</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3093,7 +3089,7 @@
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,7 +3109,7 @@
         <v>1800</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,7 +3129,7 @@
         <v>1800</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3153,7 +3149,7 @@
         <v>1800</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3173,7 +3169,7 @@
         <v>1800</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3193,7 +3189,7 @@
         <v>1800</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,7 +3209,7 @@
         <v>1800</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3233,7 +3229,7 @@
         <v>1800</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3253,7 +3249,7 @@
         <v>1800</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,7 +3269,7 @@
         <v>1800</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3293,7 +3289,7 @@
         <v>1800</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,7 +3309,7 @@
         <v>1800</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3333,7 +3329,7 @@
         <v>1800</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3353,7 +3349,7 @@
         <v>1800</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3373,7 +3369,7 @@
         <v>1800</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3393,7 +3389,7 @@
         <v>1800</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3413,7 +3409,7 @@
         <v>1800</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,7 +3429,7 @@
         <v>1800</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -3453,7 +3449,7 @@
         <v>1800</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -3461,7 +3457,7 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C150">
         <v>382000</v>
@@ -3473,15 +3469,15 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
         <v>11</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
       </c>
       <c r="C151">
         <v>387000</v>
@@ -3493,10 +3489,10 @@
         <v>5000</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -3516,7 +3512,7 @@
         <v>1800</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,7 +3532,7 @@
         <v>1800</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -3556,7 +3552,7 @@
         <v>1800</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -3576,7 +3572,7 @@
         <v>1800</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -3596,7 +3592,7 @@
         <v>1800</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -3616,7 +3612,7 @@
         <v>1800</v>
       </c>
       <c r="F157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -3636,7 +3632,7 @@
         <v>1800</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -3656,7 +3652,7 @@
         <v>1800</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -3676,7 +3672,7 @@
         <v>1800</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -3696,7 +3692,7 @@
         <v>1800</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -3716,7 +3712,7 @@
         <v>1800</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -3736,7 +3732,7 @@
         <v>1800</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -3744,7 +3740,7 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C164">
         <v>424600</v>
@@ -3756,15 +3752,15 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
         <v>11</v>
-      </c>
-      <c r="B165" t="s">
-        <v>12</v>
       </c>
       <c r="C165">
         <v>429600</v>
@@ -3776,10 +3772,10 @@
         <v>5000</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -3799,7 +3795,7 @@
         <v>1800</v>
       </c>
       <c r="F166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -3819,7 +3815,7 @@
         <v>1800</v>
       </c>
       <c r="F167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -3839,7 +3835,7 @@
         <v>1800</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -3859,7 +3855,7 @@
         <v>1800</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -3879,7 +3875,7 @@
         <v>1800</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,7 +3895,7 @@
         <v>1800</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -3907,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C172">
         <v>453400</v>
@@ -3919,15 +3915,15 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173">
         <v>458400</v>
@@ -3939,10 +3935,10 @@
         <v>5000</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -3962,7 +3958,7 @@
         <v>1800</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -3982,7 +3978,7 @@
         <v>1800</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4002,7 +3998,7 @@
         <v>1800</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4022,7 +4018,7 @@
         <v>1800</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4042,7 +4038,7 @@
         <v>1800</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4062,7 +4058,7 @@
         <v>1800</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4082,7 +4078,7 @@
         <v>1800</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4102,7 +4098,7 @@
         <v>1800</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4122,7 +4118,7 @@
         <v>1800</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4142,7 +4138,7 @@
         <v>1800</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4162,7 +4158,7 @@
         <v>1800</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4182,7 +4178,7 @@
         <v>1800</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4190,7 +4186,7 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C186">
         <v>496000</v>
@@ -4202,15 +4198,15 @@
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
         <v>11</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
       </c>
       <c r="C187">
         <v>501000</v>
@@ -4222,10 +4218,10 @@
         <v>5000</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4245,7 +4241,7 @@
         <v>1800</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4265,7 +4261,7 @@
         <v>1800</v>
       </c>
       <c r="F189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4285,7 +4281,7 @@
         <v>1800</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -4305,7 +4301,7 @@
         <v>1800</v>
       </c>
       <c r="F191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -4325,7 +4321,7 @@
         <v>1800</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -4345,7 +4341,7 @@
         <v>1800</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -4365,7 +4361,7 @@
         <v>1800</v>
       </c>
       <c r="F194" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -4385,7 +4381,7 @@
         <v>1800</v>
       </c>
       <c r="F195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -4405,7 +4401,7 @@
         <v>1800</v>
       </c>
       <c r="F196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -4425,7 +4421,7 @@
         <v>1800</v>
       </c>
       <c r="F197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -4445,7 +4441,7 @@
         <v>1800</v>
       </c>
       <c r="F198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -4465,7 +4461,7 @@
         <v>1800</v>
       </c>
       <c r="F199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -4485,7 +4481,7 @@
         <v>1800</v>
       </c>
       <c r="F200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -4493,7 +4489,7 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C201">
         <v>540900</v>
@@ -4505,15 +4501,15 @@
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
         <v>11</v>
-      </c>
-      <c r="B202" t="s">
-        <v>12</v>
       </c>
       <c r="C202">
         <v>545900</v>
@@ -4525,10 +4521,10 @@
         <v>5000</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -4548,7 +4544,7 @@
         <v>1800</v>
       </c>
       <c r="F203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4568,7 +4564,7 @@
         <v>1800</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4588,7 +4584,7 @@
         <v>1800</v>
       </c>
       <c r="F205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -4608,7 +4604,7 @@
         <v>1800</v>
       </c>
       <c r="F206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4628,7 +4624,7 @@
         <v>1800</v>
       </c>
       <c r="F207" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -4648,7 +4644,7 @@
         <v>1800</v>
       </c>
       <c r="F208" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -4668,7 +4664,7 @@
         <v>1800</v>
       </c>
       <c r="F209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -4688,7 +4684,7 @@
         <v>1800</v>
       </c>
       <c r="F210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -4708,7 +4704,7 @@
         <v>1800</v>
       </c>
       <c r="F211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -4728,7 +4724,7 @@
         <v>1800</v>
       </c>
       <c r="F212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -4748,7 +4744,7 @@
         <v>1800</v>
       </c>
       <c r="F213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -4768,7 +4764,7 @@
         <v>1800</v>
       </c>
       <c r="F214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -4776,7 +4772,7 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C215">
         <v>583500</v>
@@ -4788,15 +4784,15 @@
         <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
         <v>11</v>
-      </c>
-      <c r="B216" t="s">
-        <v>12</v>
       </c>
       <c r="C216">
         <v>588500</v>
@@ -4808,10 +4804,10 @@
         <v>5000</v>
       </c>
       <c r="F216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -4831,7 +4827,7 @@
         <v>1800</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -4851,7 +4847,7 @@
         <v>1800</v>
       </c>
       <c r="F218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -4871,7 +4867,7 @@
         <v>1800</v>
       </c>
       <c r="F219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -4891,7 +4887,7 @@
         <v>1800</v>
       </c>
       <c r="F220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -4911,7 +4907,7 @@
         <v>1800</v>
       </c>
       <c r="F221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -4931,7 +4927,7 @@
         <v>1800</v>
       </c>
       <c r="F222" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -4951,7 +4947,7 @@
         <v>1800</v>
       </c>
       <c r="F223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -4971,7 +4967,7 @@
         <v>1800</v>
       </c>
       <c r="F224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,7 +4987,7 @@
         <v>1800</v>
       </c>
       <c r="F225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -5011,7 +5007,7 @@
         <v>1800</v>
       </c>
       <c r="F226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5019,7 +5015,7 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C227">
         <v>621500</v>
@@ -5031,15 +5027,15 @@
         <v>0</v>
       </c>
       <c r="F227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
         <v>11</v>
-      </c>
-      <c r="B228" t="s">
-        <v>12</v>
       </c>
       <c r="C228">
         <v>626500</v>
@@ -5051,10 +5047,10 @@
         <v>5000</v>
       </c>
       <c r="F228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -5074,7 +5070,7 @@
         <v>1800</v>
       </c>
       <c r="F229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -5094,7 +5090,7 @@
         <v>1800</v>
       </c>
       <c r="F230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -5114,7 +5110,7 @@
         <v>1800</v>
       </c>
       <c r="F231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -5134,7 +5130,7 @@
         <v>1800</v>
       </c>
       <c r="F232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -5154,7 +5150,7 @@
         <v>1800</v>
       </c>
       <c r="F233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -5174,7 +5170,7 @@
         <v>1800</v>
       </c>
       <c r="F234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -5194,7 +5190,7 @@
         <v>1800</v>
       </c>
       <c r="F235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -5214,7 +5210,7 @@
         <v>1800</v>
       </c>
       <c r="F236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -5234,7 +5230,7 @@
         <v>1800</v>
       </c>
       <c r="F237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -5254,7 +5250,7 @@
         <v>1800</v>
       </c>
       <c r="F238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -5262,7 +5258,7 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C239">
         <v>659500</v>
@@ -5274,15 +5270,15 @@
         <v>0</v>
       </c>
       <c r="F239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
         <v>11</v>
-      </c>
-      <c r="B240" t="s">
-        <v>12</v>
       </c>
       <c r="C240">
         <v>664500</v>
@@ -5294,10 +5290,10 @@
         <v>5000</v>
       </c>
       <c r="F240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -5317,7 +5313,7 @@
         <v>1800</v>
       </c>
       <c r="F241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -5337,7 +5333,7 @@
         <v>1800</v>
       </c>
       <c r="F242" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -5357,7 +5353,7 @@
         <v>1800</v>
       </c>
       <c r="F243" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -5377,7 +5373,7 @@
         <v>1800</v>
       </c>
       <c r="F244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -5397,7 +5393,7 @@
         <v>1800</v>
       </c>
       <c r="F245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -5417,7 +5413,7 @@
         <v>1800</v>
       </c>
       <c r="F246" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -5425,7 +5421,7 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C247">
         <v>688300</v>
@@ -5437,15 +5433,15 @@
         <v>0</v>
       </c>
       <c r="F247" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" t="s">
         <v>11</v>
-      </c>
-      <c r="B248" t="s">
-        <v>12</v>
       </c>
       <c r="C248">
         <v>693300</v>
@@ -5457,10 +5453,10 @@
         <v>5000</v>
       </c>
       <c r="F248" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -5480,7 +5476,7 @@
         <v>1800</v>
       </c>
       <c r="F249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -5500,7 +5496,7 @@
         <v>1800</v>
       </c>
       <c r="F250" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -5520,7 +5516,7 @@
         <v>1800</v>
       </c>
       <c r="F251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -5540,7 +5536,7 @@
         <v>1800</v>
       </c>
       <c r="F252" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -5560,7 +5556,7 @@
         <v>1800</v>
       </c>
       <c r="F253" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -5580,7 +5576,7 @@
         <v>1800</v>
       </c>
       <c r="F254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -5600,7 +5596,7 @@
         <v>1800</v>
       </c>
       <c r="F255" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -5620,7 +5616,7 @@
         <v>1800</v>
       </c>
       <c r="F256" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -5640,7 +5636,7 @@
         <v>1800</v>
       </c>
       <c r="F257" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -5660,7 +5656,7 @@
         <v>1800</v>
       </c>
       <c r="F258" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -5680,7 +5676,7 @@
         <v>1800</v>
       </c>
       <c r="F259" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -5700,7 +5696,7 @@
         <v>1800</v>
       </c>
       <c r="F260" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -5720,7 +5716,7 @@
         <v>1800</v>
       </c>
       <c r="F261" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -5740,7 +5736,7 @@
         <v>1800</v>
       </c>
       <c r="F262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -5760,7 +5756,7 @@
         <v>1800</v>
       </c>
       <c r="F263" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -5780,7 +5776,7 @@
         <v>1800</v>
       </c>
       <c r="F264" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -5800,7 +5796,7 @@
         <v>1800</v>
       </c>
       <c r="F265" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -5820,7 +5816,7 @@
         <v>1800</v>
       </c>
       <c r="F266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -5828,7 +5824,7 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C267">
         <v>744700</v>
@@ -5840,15 +5836,15 @@
         <v>0</v>
       </c>
       <c r="F267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" t="s">
         <v>11</v>
-      </c>
-      <c r="B268" t="s">
-        <v>12</v>
       </c>
       <c r="C268">
         <v>749700</v>
@@ -5860,10 +5856,10 @@
         <v>5000</v>
       </c>
       <c r="F268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G268" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -5883,7 +5879,7 @@
         <v>1800</v>
       </c>
       <c r="F269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -5903,7 +5899,7 @@
         <v>1800</v>
       </c>
       <c r="F270" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -5923,7 +5919,7 @@
         <v>1800</v>
       </c>
       <c r="F271" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -5943,7 +5939,7 @@
         <v>1800</v>
       </c>
       <c r="F272" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -5963,7 +5959,7 @@
         <v>1800</v>
       </c>
       <c r="F273" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -5983,7 +5979,7 @@
         <v>1800</v>
       </c>
       <c r="F274" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6003,7 +5999,7 @@
         <v>1800</v>
       </c>
       <c r="F275" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6023,7 +6019,7 @@
         <v>1800</v>
       </c>
       <c r="F276" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6043,7 +6039,7 @@
         <v>1800</v>
       </c>
       <c r="F277" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6063,7 +6059,7 @@
         <v>1800</v>
       </c>
       <c r="F278" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6083,7 +6079,7 @@
         <v>1800</v>
       </c>
       <c r="F279" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -6103,7 +6099,7 @@
         <v>1800</v>
       </c>
       <c r="F280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6123,7 +6119,7 @@
         <v>1800</v>
       </c>
       <c r="F281" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6143,7 +6139,7 @@
         <v>1800</v>
       </c>
       <c r="F282" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6163,7 +6159,7 @@
         <v>1800</v>
       </c>
       <c r="F283" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6183,7 +6179,7 @@
         <v>1800</v>
       </c>
       <c r="F284" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -6203,7 +6199,7 @@
         <v>1800</v>
       </c>
       <c r="F285" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -6223,7 +6219,7 @@
         <v>1800</v>
       </c>
       <c r="F286" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6243,7 +6239,7 @@
         <v>1800</v>
       </c>
       <c r="F287" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -6263,7 +6259,7 @@
         <v>1800</v>
       </c>
       <c r="F288" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6283,7 +6279,7 @@
         <v>1800</v>
       </c>
       <c r="F289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -6303,7 +6299,7 @@
         <v>1800</v>
       </c>
       <c r="F290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -6323,7 +6319,7 @@
         <v>1800</v>
       </c>
       <c r="F291" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -6343,7 +6339,7 @@
         <v>1800</v>
       </c>
       <c r="F292" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -6363,7 +6359,7 @@
         <v>1800</v>
       </c>
       <c r="F293" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6383,7 +6379,7 @@
         <v>1800</v>
       </c>
       <c r="F294" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -6403,7 +6399,7 @@
         <v>1800</v>
       </c>
       <c r="F295" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -6423,7 +6419,7 @@
         <v>1800</v>
       </c>
       <c r="F296" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -6443,7 +6439,7 @@
         <v>1800</v>
       </c>
       <c r="F297" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6463,7 +6459,7 @@
         <v>1800</v>
       </c>
       <c r="F298" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6483,7 +6479,7 @@
         <v>1800</v>
       </c>
       <c r="F299" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6503,7 +6499,7 @@
         <v>1800</v>
       </c>
       <c r="F300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -6523,7 +6519,7 @@
         <v>1800</v>
       </c>
       <c r="F301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6543,7 +6539,7 @@
         <v>1800</v>
       </c>
       <c r="F302" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -6563,7 +6559,7 @@
         <v>1800</v>
       </c>
       <c r="F303" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -6583,7 +6579,7 @@
         <v>1800</v>
       </c>
       <c r="F304" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -6603,7 +6599,7 @@
         <v>1800</v>
       </c>
       <c r="F305" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -6623,7 +6619,7 @@
         <v>1800</v>
       </c>
       <c r="F306" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6643,7 +6639,7 @@
         <v>1800</v>
       </c>
       <c r="F307" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6663,7 +6659,7 @@
         <v>1800</v>
       </c>
       <c r="F308" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6683,7 +6679,7 @@
         <v>1800</v>
       </c>
       <c r="F309" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6703,7 +6699,7 @@
         <v>1800</v>
       </c>
       <c r="F310" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6723,7 +6719,7 @@
         <v>1800</v>
       </c>
       <c r="F311" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6743,7 +6739,7 @@
         <v>1800</v>
       </c>
       <c r="F312" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6763,7 +6759,7 @@
         <v>1800</v>
       </c>
       <c r="F313" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6783,7 +6779,7 @@
         <v>1800</v>
       </c>
       <c r="F314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6803,7 +6799,7 @@
         <v>1800</v>
       </c>
       <c r="F315" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6823,7 +6819,7 @@
         <v>1800</v>
       </c>
       <c r="F316" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -6843,7 +6839,7 @@
         <v>1800</v>
       </c>
       <c r="F317" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6863,7 +6859,7 @@
         <v>1800</v>
       </c>
       <c r="F318" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6883,7 +6879,7 @@
         <v>1800</v>
       </c>
       <c r="F319" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -6903,7 +6899,7 @@
         <v>1800</v>
       </c>
       <c r="F320" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -6911,7 +6907,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C321">
         <v>879300</v>
@@ -6923,15 +6919,15 @@
         <v>0</v>
       </c>
       <c r="F321" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" t="s">
         <v>11</v>
-      </c>
-      <c r="B322" t="s">
-        <v>12</v>
       </c>
       <c r="C322">
         <v>884300</v>
@@ -6943,10 +6939,10 @@
         <v>5000</v>
       </c>
       <c r="F322" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G322" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -6966,7 +6962,7 @@
         <v>1800</v>
       </c>
       <c r="F323" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -6986,7 +6982,7 @@
         <v>1800</v>
       </c>
       <c r="F324" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -7006,7 +7002,7 @@
         <v>1800</v>
       </c>
       <c r="F325" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -7026,7 +7022,7 @@
         <v>1800</v>
       </c>
       <c r="F326" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -7046,7 +7042,7 @@
         <v>1800</v>
       </c>
       <c r="F327" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -7066,7 +7062,7 @@
         <v>1800</v>
       </c>
       <c r="F328" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -7086,7 +7082,7 @@
         <v>1800</v>
       </c>
       <c r="F329" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -7106,7 +7102,7 @@
         <v>1800</v>
       </c>
       <c r="F330" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -7126,7 +7122,7 @@
         <v>1800</v>
       </c>
       <c r="F331" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -7146,7 +7142,7 @@
         <v>1800</v>
       </c>
       <c r="F332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -7166,7 +7162,7 @@
         <v>1800</v>
       </c>
       <c r="F333" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -7186,7 +7182,7 @@
         <v>1800</v>
       </c>
       <c r="F334" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -7206,7 +7202,7 @@
         <v>1800</v>
       </c>
       <c r="F335" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -7226,7 +7222,7 @@
         <v>1800</v>
       </c>
       <c r="F336" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -7246,7 +7242,7 @@
         <v>1800</v>
       </c>
       <c r="F337" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -7266,7 +7262,7 @@
         <v>1800</v>
       </c>
       <c r="F338" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -7286,7 +7282,7 @@
         <v>1800</v>
       </c>
       <c r="F339" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -7294,7 +7290,7 @@
         <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C340">
         <v>933400</v>
@@ -7306,15 +7302,15 @@
         <v>0</v>
       </c>
       <c r="F340" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>10</v>
+      </c>
+      <c r="B341" t="s">
         <v>11</v>
-      </c>
-      <c r="B341" t="s">
-        <v>12</v>
       </c>
       <c r="C341">
         <v>938400</v>
@@ -7326,10 +7322,10 @@
         <v>5000</v>
       </c>
       <c r="F341" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -7349,7 +7345,7 @@
         <v>1800</v>
       </c>
       <c r="F342" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -7369,7 +7365,7 @@
         <v>1800</v>
       </c>
       <c r="F343" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -7389,7 +7385,7 @@
         <v>1800</v>
       </c>
       <c r="F344" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -7409,7 +7405,7 @@
         <v>1800</v>
       </c>
       <c r="F345" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -7429,7 +7425,7 @@
         <v>1800</v>
       </c>
       <c r="F346" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7449,7 +7445,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
